--- a/tut05/output/0401ME10.xlsx
+++ b/tut05/output/0401ME10.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.653061224489796</v>
+        <v>6.65</v>
       </c>
       <c r="C6" t="n">
-        <v>6.409090909090909</v>
+        <v>6.41</v>
       </c>
       <c r="D6" t="n">
-        <v>5.914893617021277</v>
+        <v>5.91</v>
       </c>
       <c r="E6" t="n">
-        <v>6.591836734693878</v>
+        <v>6.59</v>
       </c>
       <c r="F6" t="n">
-        <v>6.695652173913044</v>
+        <v>6.7</v>
       </c>
       <c r="G6" t="n">
-        <v>6.304347826086956</v>
+        <v>6.3</v>
       </c>
       <c r="H6" t="n">
         <v>8.15</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.653061224489796</v>
+        <v>6.65</v>
       </c>
       <c r="C8" t="n">
-        <v>6.537634408602151</v>
+        <v>6.54</v>
       </c>
       <c r="D8" t="n">
-        <v>6.328571428571428</v>
+        <v>6.33</v>
       </c>
       <c r="E8" t="n">
-        <v>6.396825396825397</v>
+        <v>6.4</v>
       </c>
       <c r="F8" t="n">
-        <v>6.45531914893617</v>
+        <v>6.46</v>
       </c>
       <c r="G8" t="n">
-        <v>6.430604982206406</v>
+        <v>6.43</v>
       </c>
       <c r="H8" t="n">
-        <v>6.644859813084112</v>
+        <v>6.64</v>
       </c>
       <c r="I8" t="n">
-        <v>6.650969529085873</v>
+        <v>6.65</v>
       </c>
     </row>
   </sheetData>
